--- a/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>15,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>52,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52,53%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 25,69</t>
+          <t>14,87; 25,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,22; 20,55</t>
+          <t>10,23; 20,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 23,02</t>
+          <t>11,77; 22,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,48</t>
+          <t>7,86; 18,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,92; 91,15</t>
+          <t>11,91; 22,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,84; 78,29</t>
+          <t>12,45; 24,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,58; 77,65</t>
+          <t>42,0; 93,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 53,87</t>
+          <t>31,29; 78,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32,63; 77,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 49,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27,46; 61,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 73,47</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,62</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,85</t>
+          <t>19,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>47,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 22,59</t>
+          <t>9,75; 22,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,35</t>
+          <t>7,9; 18,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 19,05</t>
+          <t>6,48; 19,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 31,66</t>
+          <t>10,14; 29,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 89,13</t>
+          <t>5,81; 24,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,09; 74,24</t>
+          <t>8,82; 22,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 63,78</t>
+          <t>30,11; 91,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,6; 122,07</t>
+          <t>26,23; 78,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 65,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27,06; 108,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 70,28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 66,72</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,63</t>
+          <t>27,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,44</t>
+          <t>21,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>90,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>68,99%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 36,66</t>
+          <t>8,57; 32,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 38,46</t>
+          <t>16,57; 36,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 33,82</t>
+          <t>9,51; 34,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,07; 142,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,25; 161,73</t>
+          <t>8,58; 36,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,16; 115,4</t>
+          <t>20,09; 119,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>44,22; 152,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 116,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 144,89</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>16,66</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18,02</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>62,59%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>54,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>48,55%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>55,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,87; 23,15</t>
+          <t>15,11; 22,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,47</t>
+          <t>12,4; 19,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 20,17</t>
+          <t>11,72; 19,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 20,62</t>
+          <t>10,67; 19,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,68; 81,53</t>
+          <t>12,42; 22,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 73,43</t>
+          <t>13,73; 22,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,41; 65,71</t>
+          <t>45,92; 81,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,06; 58,77</t>
+          <t>39,89; 72,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32,32; 64,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 53,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28,06; 58,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34,41; 65,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>20,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,4</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,53</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>52,5%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>52,53%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>32,96%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>48,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>21.43378790740675</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.08173727162846</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.56408957266126</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.39879649238761</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>17.0991317101186</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>18.2869385828171</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7044375743949461</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.503696252368127</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5083296972291018</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3295720219377836</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.4237314798312322</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.4807176713612771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>14,87; 25,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,23; 20,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 22,28</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,86; 18,6</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 22,7</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,45; 24,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>42,0; 93,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>31,29; 78,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>32,63; 77,39</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>18,14; 49,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>27,46; 61,03</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>28,91; 73,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15.79501935843458</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9.585540253906908</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11.29210466373602</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.856046514856462</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>11.95227808394224</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>12.05681280735916</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.4547306585239161</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2925619566394329</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3186829270789999</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1814375134341809</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.2737314585556781</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.2820108834929102</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.99535244603713</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.2221002895636</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.27027348613144</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.59785924721517</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>22.79968625794716</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>24.64735169432282</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.98418809704914</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7637963545589502</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7618670289164134</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.493451734348729</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.6117066302185951</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.7335569822040563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,95</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,01</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,75</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>57,31%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,76%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>38,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>61,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>38,29%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>40,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 22,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,9; 18,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 19,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 29,52</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 24,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,82; 22,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>30,11; 91,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>26,23; 78,67</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,71; 65,92</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>27,06; 108,83</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>12,95; 70,28</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>20,37; 66,72</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>17.18167043871441</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.32900120863526</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.85335692152146</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19.9529858078005</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.87152425726624</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>15.98152802148543</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6177334909239854</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4826976631055087</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3974316238245127</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6154938491887703</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3782849880761232</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.4188682229220568</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>20,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>27,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>23,29</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>61,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>90,83%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>58,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>68,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>10.65047547733728</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.797622120474807</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.954866110106066</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>10.14064834556719</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.774020573452226</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>9.292766362676472</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.3305569922007464</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2538710892240776</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1926063643897474</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2706059997117259</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1272505671368152</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.2137197023938398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 32,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>16,57; 36,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9,51; 34,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 36,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>20,09; 119,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>44,22; 152,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>22,33; 116,81</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>20,46; 144,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.81502668004342</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.05751851518194</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.4455557740305</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>29.52250220525539</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>24.29534077199349</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.17288779550984</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9797569084525667</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7867737184822216</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6674259510067964</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.0883085288653</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6977648164479235</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6800496446804364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>18,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,79</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,01</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,66</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,02</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>62,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>55,45%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>47,88%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>38,8%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>41,53%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>47,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>23.75101361268742</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>27.69177589752168</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>23.02220699124353</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>24.01115339920584</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.7369640701396548</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9418717835671442</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.6407702716303467</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.7152119163494614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>15,11; 22,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,4; 19,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11,72; 19,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>10,67; 19,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 22,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13,73; 22,7</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>45,92; 81,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,89; 72,82</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>32,32; 64,94</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>25,28; 53,8</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>28,06; 58,25</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>34,41; 65,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>10.04159300461087</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>16.97959793922516</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>10.53746265349523</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>9.549182024542231</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.2392591441387188</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.4696647008845108</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.256117720274802</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>0.2312643729786011</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>35.4614848020509</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>37.64907587609795</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>34.87393852774257</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>37.78117915247678</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.382608162085919</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.552185367702157</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.243918651592285</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.507705533952737</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>20.0783137490996</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.89490059465497</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.8563219251515</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>15.00850636014416</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>16.63038029429971</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>18.0861210460751</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6781755948904152</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5491499096671483</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4819941069095157</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3879993948172142</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4147110498825646</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.4818003124046284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>16.3488469586003</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>12.12872115482568</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>11.75272829978327</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>10.67106989610198</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>12.29829372189947</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>13.64415297278266</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.5078376755182453</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3885253247852014</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3208615659918388</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2528487901071892</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.2803493907567618</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.3443128756066707</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.09510085097589</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.61120896396903</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.9048232572585</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.83422446138354</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>21.84054257951981</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>22.73804505124059</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8794479011247694</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7245777581389058</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6500837918780741</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5379943393863481</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.5781302287400479</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.6553630225061485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
